--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BankAuthAct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A980D6AA-272B-4455-9A0A-7C3CAA6FBFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986A1B88-D237-436F-BD1D-128B5235B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -248,11 +248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:PostDepCode
-存簿：P劃撥：G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>變更扣款帳號時授權成功才會更新</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -277,36 +272,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AuthCode
-00.期款 (ACH)
-01.期款 (郵局)
-02.火險 (郵局)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ACH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PostDepCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthCode
+00:期款 (ACH)
+01:期款 (郵局)
+02:火險 (郵局)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.PostDepCode
+P:存簿
+G:劃撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>空白:未授權
 0:授權成功       授權提回更新      
-1:停止使用       0:授權成功時維護；恢復=&gt;維護回0:授權成功
-2.取消授權       授權提回更新 
-8.授權失敗
+1:停止使用       0：授權成功時維護；恢復=&gt;維護回0：授權成功
+2:取消授權       授權提回更新 
+8:授權失敗
 9:已送出授權</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -926,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
@@ -1098,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>28</v>
@@ -1108,7 +1109,7 @@
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1128,12 +1129,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.4">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="19">
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>55</v>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="24" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1166,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="97.2">
@@ -1174,10 +1175,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>23</v>
@@ -1186,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1206,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1217,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>28</v>
@@ -1227,7 +1228,7 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1318,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -1374,10 +1375,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>40</v>
